--- a/data/primary_data/extract/extract_data/extract_mcadl.xlsx
+++ b/data/primary_data/extract/extract_data/extract_mcadl.xlsx
@@ -34,34 +34,34 @@
     <t>aggravated assault against a female</t>
   </si>
   <si>
+    <t>Assault (×3)</t>
+  </si>
+  <si>
+    <t>Assault with Intent</t>
+  </si>
+  <si>
+    <t>drug possession</t>
+  </si>
+  <si>
     <t>Threatening Behaviour</t>
   </si>
   <si>
-    <t>Assault (×3)</t>
-  </si>
-  <si>
-    <t>drug possession</t>
-  </si>
-  <si>
-    <t>Assault with Intent</t>
-  </si>
-  <si>
     <t>sexual offences</t>
   </si>
   <si>
+    <t>sexual harassment</t>
+  </si>
+  <si>
     <t>robbery</t>
   </si>
   <si>
+    <t>sexual assault</t>
+  </si>
+  <si>
+    <t>acquisitive offences</t>
+  </si>
+  <si>
     <t>theft</t>
-  </si>
-  <si>
-    <t>sexual assault</t>
-  </si>
-  <si>
-    <t>sexual harassment</t>
-  </si>
-  <si>
-    <t>acquisitive offences</t>
   </si>
   <si>
     <t xml:space="preserve"> Analysis of offending While on probation for a charge of aggravated assault against a female, you assaulted another individual at a public event. Initially, the confrontation was verbal, but it escalated when you struck the victim without provocation.</t>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
